--- a/python-in-excel-descriptive-stats-demo.xlsx
+++ b/python-in-excel-descriptive-stats-demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47296DB4-946A-4F46-9EBF-76CCFDE8971C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A552AAF3-B2B5-4DA7-958F-6055943E5A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{68269C2A-B275-4D45-ABB5-8227CC777EEC}"/>
   </bookViews>
@@ -35,10 +35,32 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
-    <initialization>
+    <initialization userModified="1">
       <code xml:space="preserve">import numpy as np
 import pandas as pd
 import matplotlib.pyplot as plt
@@ -52,26 +74,32 @@
 </code>
     </initialization>
   </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>sales_df = xl(%P2%, headers=True)
+sales_df.describe()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sales_df['sales'].describe()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sales_df[['category', 'region']].describe()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sales_df.groupby(['region', 'category'])['sales'].describe()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sales_df['sales'].quantile([0.1, 0.25, 0.5, 0.75, 0.9])</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sales_df.groupby('category')['sales'].mean().nlargest(4)</code>
+    </pythonScript>
+  </pythonScripts>
 </python>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="18">
-  <si>
-    <t>Transaction ID</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Product Category</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Sales Amount</t>
-  </si>
   <si>
     <t>Mar</t>
   </si>
@@ -110,6 +138,21 @@
   </si>
   <si>
     <t>Office Supplies</t>
+  </si>
+  <si>
+    <t>transaction_id</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>sales</t>
   </si>
 </sst>
 </file>
@@ -165,14 +208,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73F8178D-0E5B-4AAA-B8C4-D553274F715B}" name="Table1" displayName="Table1" ref="A1:E101" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73F8178D-0E5B-4AAA-B8C4-D553274F715B}" name="sales" displayName="sales" ref="A1:E101" totalsRowShown="0">
   <autoFilter ref="A1:E101" xr:uid="{73F8178D-0E5B-4AAA-B8C4-D553274F715B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6DF6194C-918F-4B11-9579-9265B4BC48BA}" name="Transaction ID"/>
-    <tableColumn id="2" xr3:uid="{F9F06AE2-F0BF-4F2B-B692-2A209BA48A3C}" name="Month"/>
-    <tableColumn id="3" xr3:uid="{E930E68B-A689-4BA7-97EF-8D055D674E6A}" name="Product Category"/>
-    <tableColumn id="4" xr3:uid="{2E0963B2-2CCF-4AD4-AE6F-E0B6DAAFDEF8}" name="Region"/>
-    <tableColumn id="5" xr3:uid="{0570BBD1-985A-46C5-82FB-C538149AA165}" name="Sales Amount"/>
+    <tableColumn id="1" xr3:uid="{6DF6194C-918F-4B11-9579-9265B4BC48BA}" name="transaction_id"/>
+    <tableColumn id="2" xr3:uid="{F9F06AE2-F0BF-4F2B-B692-2A209BA48A3C}" name="month"/>
+    <tableColumn id="3" xr3:uid="{E930E68B-A689-4BA7-97EF-8D055D674E6A}" name="category"/>
+    <tableColumn id="4" xr3:uid="{2E0963B2-2CCF-4AD4-AE6F-E0B6DAAFDEF8}" name="region"/>
+    <tableColumn id="5" xr3:uid="{0570BBD1-985A-46C5-82FB-C538149AA165}" name="sales"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -495,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D15D06-8AD7-41E5-B11D-DD98DA0F2EDB}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E101"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
@@ -508,1091 +551,2009 @@
     <col min="3" max="3" width="15.875" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.0390625" customWidth="1"/>
+    <col min="6" max="6" width="3.70703125" customWidth="1"/>
+    <col min="7" max="7" width="12.7890625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.95703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.95703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.7">
+        <v>17</v>
+      </c>
+      <c r="G1" t="str" cm="1">
+        <f t="array" ref="G1:I9">_xlfn._xlws.PY(0,0,sales[#All])</f>
+        <v/>
+      </c>
+      <c r="H1" t="str">
+        <v>transaction_id</v>
+      </c>
+      <c r="I1" t="str">
+        <v>sales</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>1051.4100000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G2" t="str">
+        <v>count</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>639.13</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G3" t="str">
+        <v>mean</v>
+      </c>
+      <c r="H3">
+        <v>1050.5</v>
+      </c>
+      <c r="I3">
+        <v>983.96439999999984</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>743.07</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G4" t="str">
+        <v>std</v>
+      </c>
+      <c r="H4">
+        <v>29.011491975882016</v>
+      </c>
+      <c r="I4">
+        <v>254.55423897162714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A5">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>1185.31</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G5" t="str">
+        <v>min</v>
+      </c>
+      <c r="H5">
+        <v>1001</v>
+      </c>
+      <c r="I5">
+        <v>420.48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A6">
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>572.37</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G6" t="str">
+        <v>25%</v>
+      </c>
+      <c r="H6">
+        <v>1025.75</v>
+      </c>
+      <c r="I6">
+        <v>816.71250000000009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A7">
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>1029.74</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G7" t="str">
+        <v>50%</v>
+      </c>
+      <c r="H7">
+        <v>1050.5</v>
+      </c>
+      <c r="I7">
+        <v>980.64499999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A8">
         <v>1007</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>1250.1199999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G8" t="str">
+        <v>75%</v>
+      </c>
+      <c r="H8">
+        <v>1075.25</v>
+      </c>
+      <c r="I8">
+        <v>1149.5650000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A9">
         <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>1038.1099999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G9" t="str">
+        <v>max</v>
+      </c>
+      <c r="H9">
+        <v>1100</v>
+      </c>
+      <c r="I9">
+        <v>1765.27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A10">
         <v>1009</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>849.65</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A11">
         <v>1010</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>788.35</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G11" t="str" cm="1">
+        <f t="array" ref="G11:H19">_xlfn._xlws.PY(1,0)</f>
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <v>sales</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A12">
         <v>1011</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>1204.04</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G12" t="str">
+        <v>count</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A13">
         <v>1012</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>1117.93</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G13" t="str">
+        <v>mean</v>
+      </c>
+      <c r="H13">
+        <v>983.96439999999984</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A14">
         <v>1013</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>928.63</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G14" t="str">
+        <v>std</v>
+      </c>
+      <c r="H14">
+        <v>254.55423897162714</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A15">
         <v>1014</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>1266.32</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G15" t="str">
+        <v>min</v>
+      </c>
+      <c r="H15">
+        <v>420.48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A16">
         <v>1015</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>1213.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G16" t="str">
+        <v>25%</v>
+      </c>
+      <c r="H16">
+        <v>816.71250000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A17">
         <v>1016</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>1447.15</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G17" t="str">
+        <v>50%</v>
+      </c>
+      <c r="H17">
+        <v>980.64499999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A18">
         <v>1017</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <v>1141.72</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G18" t="str">
+        <v>75%</v>
+      </c>
+      <c r="H18">
+        <v>1149.5650000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A19">
         <v>1018</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>958.87</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G19" t="str">
+        <v>max</v>
+      </c>
+      <c r="H19">
+        <v>1765.27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A20">
         <v>1019</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <v>964.25</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A21">
         <v>1020</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E21">
         <v>516.36</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G21" t="str" cm="1">
+        <f t="array" ref="G21:I25">_xlfn._xlws.PY(2,0)</f>
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <v>category</v>
+      </c>
+      <c r="I21" t="str">
+        <v>region</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A22">
         <v>1021</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E22">
         <v>1037.6600000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G22" t="str">
+        <v>count</v>
+      </c>
+      <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A23">
         <v>1022</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>996.07</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G23" t="str">
+        <v>unique</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A24">
         <v>1023</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E24">
         <v>667.48</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G24" t="str">
+        <v>top</v>
+      </c>
+      <c r="H24" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="I24" t="str">
+        <v>West</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A25">
         <v>1024</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>993.68</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G25" t="str">
+        <v>freq</v>
+      </c>
+      <c r="H25">
+        <v>24</v>
+      </c>
+      <c r="I25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A26">
         <v>1025</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>1335.79</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A27">
         <v>1026</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>816.36</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G27" t="str" cm="1">
+        <f t="array" ref="G27:P48">_xlfn._xlws.PY(3,0)</f>
+        <v/>
+      </c>
+      <c r="H27" t="str">
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <v>count</v>
+      </c>
+      <c r="J27" t="str">
+        <v>mean</v>
+      </c>
+      <c r="K27" t="str">
+        <v>std</v>
+      </c>
+      <c r="L27" t="str">
+        <v>min</v>
+      </c>
+      <c r="M27" t="str">
+        <v>25%</v>
+      </c>
+      <c r="N27" t="str">
+        <v>50%</v>
+      </c>
+      <c r="O27" t="str">
+        <v>75%</v>
+      </c>
+      <c r="P27" t="str">
+        <v>max</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A28">
         <v>1027</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>760.03</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G28" t="str">
+        <v>region</v>
+      </c>
+      <c r="H28" t="str">
+        <v>category</v>
+      </c>
+      <c r="I28" t="str">
+        <v/>
+      </c>
+      <c r="J28" t="str">
+        <v/>
+      </c>
+      <c r="K28" t="str">
+        <v/>
+      </c>
+      <c r="L28" t="str">
+        <v/>
+      </c>
+      <c r="M28" t="str">
+        <v/>
+      </c>
+      <c r="N28" t="str">
+        <v/>
+      </c>
+      <c r="O28" t="str">
+        <v/>
+      </c>
+      <c r="P28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A29">
         <v>1028</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <v>1276.23</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G29" t="str">
+        <v>Midwest</v>
+      </c>
+      <c r="H29" t="str">
+        <v>Books</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>765.59</v>
+      </c>
+      <c r="K29">
+        <v>352.46444615024649</v>
+      </c>
+      <c r="L29">
+        <v>516.36</v>
+      </c>
+      <c r="M29">
+        <v>640.97500000000002</v>
+      </c>
+      <c r="N29">
+        <v>765.59</v>
+      </c>
+      <c r="O29">
+        <v>890.20500000000004</v>
+      </c>
+      <c r="P29">
+        <v>1014.82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A30">
         <v>1029</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E30">
         <v>1158.56</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G30" t="str">
+        <v>Midwest</v>
+      </c>
+      <c r="H30" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="I30">
+        <v>7</v>
+      </c>
+      <c r="J30">
+        <v>907.97285714285704</v>
+      </c>
+      <c r="K30">
+        <v>210.25926580567824</v>
+      </c>
+      <c r="L30">
+        <v>673.58</v>
+      </c>
+      <c r="M30">
+        <v>757.36</v>
+      </c>
+      <c r="N30">
+        <v>815.19</v>
+      </c>
+      <c r="O30">
+        <v>1069.4100000000001</v>
+      </c>
+      <c r="P30">
+        <v>1213.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A31">
         <v>1030</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <v>1765.27</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G31" t="str">
+        <v>Midwest</v>
+      </c>
+      <c r="H31" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>1014.0260000000001</v>
+      </c>
+      <c r="K31">
+        <v>174.42619937956565</v>
+      </c>
+      <c r="L31">
+        <v>729.95</v>
+      </c>
+      <c r="M31">
+        <v>996.07</v>
+      </c>
+      <c r="N31">
+        <v>1038.1099999999999</v>
+      </c>
+      <c r="O31">
+        <v>1125.9000000000001</v>
+      </c>
+      <c r="P31">
+        <v>1180.0999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A32">
         <v>1031</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E32">
         <v>670.36</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G32" t="str">
+        <v>Midwest</v>
+      </c>
+      <c r="H32" t="str">
+        <v>Furniture</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>663.6</v>
+      </c>
+      <c r="K32">
+        <v>343.82360128414689</v>
+      </c>
+      <c r="L32">
+        <v>420.48</v>
+      </c>
+      <c r="M32">
+        <v>542.04</v>
+      </c>
+      <c r="N32">
+        <v>663.6</v>
+      </c>
+      <c r="O32">
+        <v>785.16000000000008</v>
+      </c>
+      <c r="P32">
+        <v>906.72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A33">
         <v>1032</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E33">
         <v>1180.0999999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G33" t="str">
+        <v>Midwest</v>
+      </c>
+      <c r="H33" t="str">
+        <v>Office Supplies</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <v>905.47500000000002</v>
+      </c>
+      <c r="K33">
+        <v>288.68978939339024</v>
+      </c>
+      <c r="L33">
+        <v>641.02</v>
+      </c>
+      <c r="M33">
+        <v>663.02499999999998</v>
+      </c>
+      <c r="N33">
+        <v>911.05</v>
+      </c>
+      <c r="O33">
+        <v>1153.5</v>
+      </c>
+      <c r="P33">
+        <v>1158.78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A34">
         <v>1033</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E34">
         <v>1078.97</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G34" t="str">
+        <v>Northeast</v>
+      </c>
+      <c r="H34" t="str">
+        <v>Books</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <v>1125.6500000000001</v>
+      </c>
+      <c r="K34">
+        <v>401.59957993005924</v>
+      </c>
+      <c r="L34">
+        <v>833.26</v>
+      </c>
+      <c r="M34">
+        <v>849.88749999999993</v>
+      </c>
+      <c r="N34">
+        <v>986.68000000000006</v>
+      </c>
+      <c r="O34">
+        <v>1262.4425000000001</v>
+      </c>
+      <c r="P34">
+        <v>1695.98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A35">
         <v>1034</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E35">
         <v>1014.82</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G35" t="str">
+        <v>Northeast</v>
+      </c>
+      <c r="H35" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>1089.9000000000001</v>
+      </c>
+      <c r="K35">
+        <v>286.60374064202307</v>
+      </c>
+      <c r="L35">
+        <v>788.16</v>
+      </c>
+      <c r="M35">
+        <v>816.36</v>
+      </c>
+      <c r="N35">
+        <v>1123.75</v>
+      </c>
+      <c r="O35">
+        <v>1274.08</v>
+      </c>
+      <c r="P35">
+        <v>1447.15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A36">
         <v>1035</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E36">
         <v>1227.6300000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G36" t="str">
+        <v>Northeast</v>
+      </c>
+      <c r="H36" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="I36">
+        <v>8</v>
+      </c>
+      <c r="J36">
+        <v>1093.7425000000001</v>
+      </c>
+      <c r="K36">
+        <v>205.30736503037161</v>
+      </c>
+      <c r="L36">
+        <v>816.83</v>
+      </c>
+      <c r="M36">
+        <v>960.68000000000006</v>
+      </c>
+      <c r="N36">
+        <v>1061.675</v>
+      </c>
+      <c r="O36">
+        <v>1283.6875</v>
+      </c>
+      <c r="P36">
+        <v>1341.11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A37">
         <v>1036</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E37">
         <v>992.57</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G37" t="str">
+        <v>Northeast</v>
+      </c>
+      <c r="H37" t="str">
+        <v>Furniture</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>1021.99</v>
+      </c>
+      <c r="K37">
+        <v>41.606163005016477</v>
+      </c>
+      <c r="L37">
+        <v>992.57</v>
+      </c>
+      <c r="M37">
+        <v>1007.2800000000001</v>
+      </c>
+      <c r="N37">
+        <v>1021.99</v>
+      </c>
+      <c r="O37">
+        <v>1036.7</v>
+      </c>
+      <c r="P37">
+        <v>1051.4100000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A38">
         <v>1037</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E38">
         <v>515.91</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G38" t="str">
+        <v>Northeast</v>
+      </c>
+      <c r="H38" t="str">
+        <v>Office Supplies</v>
+      </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
+      <c r="J38">
+        <v>1333.4724999999999</v>
+      </c>
+      <c r="K38">
+        <v>382.15084337427106</v>
+      </c>
+      <c r="L38">
+        <v>847.66</v>
+      </c>
+      <c r="M38">
+        <v>1169.0875000000001</v>
+      </c>
+      <c r="N38">
+        <v>1360.48</v>
+      </c>
+      <c r="O38">
+        <v>1524.865</v>
+      </c>
+      <c r="P38">
+        <v>1765.27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A39">
         <v>1038</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <v>788.16</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G39" t="str">
+        <v>South</v>
+      </c>
+      <c r="H39" t="str">
+        <v>Books</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>1004.7233333333334</v>
+      </c>
+      <c r="K39">
+        <v>178.24214157525529</v>
+      </c>
+      <c r="L39">
+        <v>812.31</v>
+      </c>
+      <c r="M39">
+        <v>924.98500000000001</v>
+      </c>
+      <c r="N39">
+        <v>1037.6600000000001</v>
+      </c>
+      <c r="O39">
+        <v>1100.93</v>
+      </c>
+      <c r="P39">
+        <v>1164.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A40">
         <v>1039</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E40">
         <v>1341.11</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G40" t="str">
+        <v>South</v>
+      </c>
+      <c r="H40" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="I40">
+        <v>9</v>
+      </c>
+      <c r="J40">
+        <v>993.798888888889</v>
+      </c>
+      <c r="K40">
+        <v>195.99047862360842</v>
+      </c>
+      <c r="L40">
+        <v>743.63</v>
+      </c>
+      <c r="M40">
+        <v>864.68</v>
+      </c>
+      <c r="N40">
+        <v>896.81</v>
+      </c>
+      <c r="O40">
+        <v>1148.9100000000001</v>
+      </c>
+      <c r="P40">
+        <v>1293.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A41">
         <v>1040</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E41">
         <v>1293.01</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G41" t="str">
+        <v>South</v>
+      </c>
+      <c r="H41" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="I41">
+        <v>6</v>
+      </c>
+      <c r="J41">
+        <v>991.48500000000001</v>
+      </c>
+      <c r="K41">
+        <v>268.43289617705204</v>
+      </c>
+      <c r="L41">
+        <v>667.48</v>
+      </c>
+      <c r="M41">
+        <v>821.87750000000005</v>
+      </c>
+      <c r="N41">
+        <v>955.15499999999997</v>
+      </c>
+      <c r="O41">
+        <v>1122.085</v>
+      </c>
+      <c r="P41">
+        <v>1415.94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A42">
         <v>1041</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E42">
         <v>906.72</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G42" t="str">
+        <v>South</v>
+      </c>
+      <c r="H42" t="str">
+        <v>Furniture</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+      <c r="J42">
+        <v>926.65500000000009</v>
+      </c>
+      <c r="K42">
+        <v>242.45178400388536</v>
+      </c>
+      <c r="L42">
+        <v>639.13</v>
+      </c>
+      <c r="M42">
+        <v>820.67500000000007</v>
+      </c>
+      <c r="N42">
+        <v>919.93000000000006</v>
+      </c>
+      <c r="O42">
+        <v>1025.9100000000001</v>
+      </c>
+      <c r="P42">
+        <v>1227.6300000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A43">
         <v>1042</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E43">
         <v>1125.9000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G43" t="str">
+        <v>South</v>
+      </c>
+      <c r="H43" t="str">
+        <v>Office Supplies</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+      <c r="J43">
+        <v>1211.2933333333333</v>
+      </c>
+      <c r="K43">
+        <v>165.38227726492747</v>
+      </c>
+      <c r="L43">
+        <v>1084.0999999999999</v>
+      </c>
+      <c r="M43">
+        <v>1117.8150000000001</v>
+      </c>
+      <c r="N43">
+        <v>1151.53</v>
+      </c>
+      <c r="O43">
+        <v>1274.8899999999999</v>
+      </c>
+      <c r="P43">
+        <v>1398.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A44">
         <v>1043</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>1695.98</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G44" t="str">
+        <v>West</v>
+      </c>
+      <c r="H44" t="str">
+        <v>Books</v>
+      </c>
+      <c r="I44">
+        <v>11</v>
+      </c>
+      <c r="J44">
+        <v>931.99636363636375</v>
+      </c>
+      <c r="K44">
+        <v>242.64018398743136</v>
+      </c>
+      <c r="L44">
+        <v>513.94000000000005</v>
+      </c>
+      <c r="M44">
+        <v>819</v>
+      </c>
+      <c r="N44">
+        <v>945.64</v>
+      </c>
+      <c r="O44">
+        <v>995.14499999999998</v>
+      </c>
+      <c r="P44">
+        <v>1472.39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A45">
         <v>1044</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E45">
         <v>992.2</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G45" t="str">
+        <v>West</v>
+      </c>
+      <c r="H45" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>577.04999999999995</v>
+      </c>
+      <c r="K45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L45">
+        <v>577.04999999999995</v>
+      </c>
+      <c r="M45">
+        <v>577.04999999999995</v>
+      </c>
+      <c r="N45">
+        <v>577.04999999999995</v>
+      </c>
+      <c r="O45">
+        <v>577.04999999999995</v>
+      </c>
+      <c r="P45">
+        <v>577.04999999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A46">
         <v>1045</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E46">
         <v>997.1</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G46" t="str">
+        <v>West</v>
+      </c>
+      <c r="H46" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>897.85799999999995</v>
+      </c>
+      <c r="K46">
+        <v>244.10933476620679</v>
+      </c>
+      <c r="L46">
+        <v>515.91</v>
+      </c>
+      <c r="M46">
+        <v>902.15</v>
+      </c>
+      <c r="N46">
+        <v>912.77</v>
+      </c>
+      <c r="O46">
+        <v>964.25</v>
+      </c>
+      <c r="P46">
+        <v>1194.21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A47">
         <v>1046</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E47">
         <v>1047.6500000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G47" t="str">
+        <v>West</v>
+      </c>
+      <c r="H47" t="str">
+        <v>Furniture</v>
+      </c>
+      <c r="I47">
+        <v>7</v>
+      </c>
+      <c r="J47">
+        <v>965.43857142857155</v>
+      </c>
+      <c r="K47">
+        <v>223.94826384893537</v>
+      </c>
+      <c r="L47">
+        <v>572.37</v>
+      </c>
+      <c r="M47">
+        <v>878.42000000000007</v>
+      </c>
+      <c r="N47">
+        <v>933</v>
+      </c>
+      <c r="O47">
+        <v>1145.9099999999999</v>
+      </c>
+      <c r="P47">
+        <v>1204.04</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A48">
         <v>1047</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E48">
         <v>1151.74</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G48" t="str">
+        <v>West</v>
+      </c>
+      <c r="H48" t="str">
+        <v>Office Supplies</v>
+      </c>
+      <c r="I48">
+        <v>8</v>
+      </c>
+      <c r="J48">
+        <v>885.77125000000001</v>
+      </c>
+      <c r="K48">
+        <v>214.11747532854821</v>
+      </c>
+      <c r="L48">
+        <v>502.12</v>
+      </c>
+      <c r="M48">
+        <v>746.0675</v>
+      </c>
+      <c r="N48">
+        <v>941.85500000000002</v>
+      </c>
+      <c r="O48">
+        <v>1055.48</v>
+      </c>
+      <c r="P48">
+        <v>1109.51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A49">
         <v>1048</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E49">
         <v>912.77</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A50">
         <v>1049</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E50">
         <v>1151.53</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A51">
         <v>1050</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E51">
         <v>513.94000000000005</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G51" t="str" cm="1">
+        <f t="array" ref="G51:H56">_xlfn._xlws.PY(4,0)</f>
+        <v/>
+      </c>
+      <c r="H51" t="str">
+        <v>sales</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A52">
         <v>1051</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E52">
         <v>1084.0999999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G52">
+        <v>0.1</v>
+      </c>
+      <c r="H52">
+        <v>670.072</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A53">
         <v>1052</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E53">
         <v>1012.66</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G53">
+        <v>0.25</v>
+      </c>
+      <c r="H53">
+        <v>816.71250000000009</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A54">
         <v>1053</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E54">
         <v>945.64</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G54">
+        <v>0.5</v>
+      </c>
+      <c r="H54">
+        <v>980.64499999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A55">
         <v>1054</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E55">
         <v>881.19</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G55">
+        <v>0.75</v>
+      </c>
+      <c r="H55">
+        <v>1149.5650000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A56">
         <v>1055</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E56">
         <v>847.66</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G56">
+        <v>0.9</v>
+      </c>
+      <c r="H56">
+        <v>1277.9080000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A57">
         <v>1056</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E57">
         <v>796.62</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A58">
         <v>1057</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E58">
         <v>420.48</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G58" t="str" cm="1">
+        <f t="array" ref="G58:H62">_xlfn._xlws.PY(5,0)</f>
+        <v>category</v>
+      </c>
+      <c r="H58" t="str">
+        <v>sales</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A59">
         <v>1058</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E59">
         <v>933</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G59" t="str">
+        <v>Office Supplies</v>
+      </c>
+      <c r="H59">
+        <v>1035.5705263157895</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A60">
         <v>1059</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E60">
         <v>1274.08</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G60" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="H60">
+        <v>1010.76125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A61">
         <v>1060</v>
       </c>
       <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
         <v>10</v>
       </c>
-      <c r="C61" t="s">
-        <v>15</v>
-      </c>
       <c r="D61" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E61">
         <v>916.15</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G61" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="H61">
+        <v>969.38863636363635</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A62">
         <v>1061</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E62">
         <v>1158.78</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="G62" t="str">
+        <v>Books</v>
+      </c>
+      <c r="H62">
+        <v>964.99549999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A63">
         <v>1062</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E63">
         <v>729.95</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A64">
         <v>1063</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E64">
         <v>673.58</v>
@@ -1603,13 +2564,13 @@
         <v>1064</v>
       </c>
       <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
         <v>10</v>
       </c>
-      <c r="C65" t="s">
-        <v>15</v>
-      </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E65">
         <v>812.31</v>
@@ -1620,13 +2581,13 @@
         <v>1065</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E66">
         <v>743.63</v>
@@ -1637,13 +2598,13 @@
         <v>1066</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E67">
         <v>704.24</v>
@@ -1654,13 +2615,13 @@
         <v>1067</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E68">
         <v>1112.44</v>
@@ -1671,13 +2632,13 @@
         <v>1068</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E69">
         <v>1444.73</v>
@@ -1688,13 +2649,13 @@
         <v>1069</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E70">
         <v>833.26</v>
@@ -1705,13 +2666,13 @@
         <v>1070</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E71">
         <v>577.04999999999995</v>
@@ -1722,13 +2683,13 @@
         <v>1071</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E72">
         <v>1164.2</v>
@@ -1739,13 +2700,13 @@
         <v>1072</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E73">
         <v>641.02</v>
@@ -1756,13 +2717,13 @@
         <v>1073</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E74">
         <v>704.18</v>
@@ -1773,13 +2734,13 @@
         <v>1074</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E75">
         <v>1123.75</v>
@@ -1790,13 +2751,13 @@
         <v>1075</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E76">
         <v>958.67</v>
@@ -1807,13 +2768,13 @@
         <v>1076</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E77">
         <v>828.21</v>
@@ -1824,13 +2785,13 @@
         <v>1077</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E78">
         <v>1017.09</v>
@@ -1841,13 +2802,13 @@
         <v>1078</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E79">
         <v>897.65</v>
@@ -1858,13 +2819,13 @@
         <v>1079</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E80">
         <v>1472.39</v>
@@ -1875,13 +2836,13 @@
         <v>1080</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E81">
         <v>831.05</v>
@@ -1892,13 +2853,13 @@
         <v>1081</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E82">
         <v>771.65</v>
@@ -1909,13 +2870,13 @@
         <v>1082</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E83">
         <v>886.24</v>
@@ -1926,13 +2887,13 @@
         <v>1083</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E84">
         <v>896.81</v>
@@ -1943,13 +2904,13 @@
         <v>1084</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E85">
         <v>1148.9100000000001</v>
@@ -1960,13 +2921,13 @@
         <v>1085</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C86" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D86" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E86">
         <v>502.12</v>
@@ -1977,13 +2938,13 @@
         <v>1086</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E87">
         <v>1106.51</v>
@@ -1994,13 +2955,13 @@
         <v>1087</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E88">
         <v>864.68</v>
@@ -2011,13 +2972,13 @@
         <v>1088</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E89">
         <v>1194.21</v>
@@ -2028,13 +2989,13 @@
         <v>1089</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E90">
         <v>988.09</v>
@@ -2045,13 +3006,13 @@
         <v>1090</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E91">
         <v>1129.67</v>
@@ -2062,13 +3023,13 @@
         <v>1091</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E92">
         <v>902.15</v>
@@ -2079,13 +3040,13 @@
         <v>1092</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D93" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E93">
         <v>1109.51</v>
@@ -2096,13 +3057,13 @@
         <v>1093</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E94">
         <v>1415.94</v>
@@ -2113,13 +3074,13 @@
         <v>1094</v>
       </c>
       <c r="B95" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D95" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E95">
         <v>815.19</v>
@@ -2130,13 +3091,13 @@
         <v>1095</v>
       </c>
       <c r="B96" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E96">
         <v>973.2</v>
@@ -2147,13 +3108,13 @@
         <v>1096</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E97">
         <v>878.45</v>
@@ -2164,13 +3125,13 @@
         <v>1097</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E98">
         <v>1398.25</v>
@@ -2181,13 +3142,13 @@
         <v>1098</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D99" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E99">
         <v>891.51</v>
@@ -2198,13 +3159,13 @@
         <v>1099</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E100">
         <v>816.83</v>
@@ -2215,13 +3176,13 @@
         <v>1100</v>
       </c>
       <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
         <v>10</v>
       </c>
-      <c r="C101" t="s">
-        <v>15</v>
-      </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E101">
         <v>855.43</v>

--- a/python-in-excel-descriptive-stats-demo.xlsx
+++ b/python-in-excel-descriptive-stats-demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29107"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A552AAF3-B2B5-4DA7-958F-6055943E5A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35AF6C9-B8A0-4890-A34C-14742726D72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{68269C2A-B275-4D45-ABB5-8227CC777EEC}"/>
   </bookViews>
@@ -37,8 +37,9 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
+  <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -49,11 +50,25 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
 </metadata>
 </file>
 
@@ -205,6 +220,62 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>14</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+  </s>
+</rvStructures>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -576,13 +647,15 @@
         <v>17</v>
       </c>
       <c r="G1" t="str" cm="1">
-        <f t="array" ref="G1:I9">_xlfn._xlws.PY(0,0,sales[#All])</f>
+        <f t="array" aca="1" ref="G1:I9" ca="1">_xlfn._xlws.PY(0,0,sales[#All])</f>
         <v/>
       </c>
       <c r="H1" t="str">
+        <f ca="1"/>
         <v>transaction_id</v>
       </c>
       <c r="I1" t="str">
+        <f ca="1"/>
         <v>sales</v>
       </c>
     </row>
@@ -603,12 +676,15 @@
         <v>1051.4100000000001</v>
       </c>
       <c r="G2" t="str">
+        <f ca="1"/>
         <v>count</v>
       </c>
       <c r="H2">
+        <f ca="1"/>
         <v>100</v>
       </c>
       <c r="I2">
+        <f ca="1"/>
         <v>100</v>
       </c>
     </row>
@@ -629,12 +705,15 @@
         <v>639.13</v>
       </c>
       <c r="G3" t="str">
+        <f ca="1"/>
         <v>mean</v>
       </c>
       <c r="H3">
+        <f ca="1"/>
         <v>1050.5</v>
       </c>
       <c r="I3">
+        <f ca="1"/>
         <v>983.96439999999984</v>
       </c>
     </row>
@@ -655,12 +734,15 @@
         <v>743.07</v>
       </c>
       <c r="G4" t="str">
+        <f ca="1"/>
         <v>std</v>
       </c>
       <c r="H4">
+        <f ca="1"/>
         <v>29.011491975882016</v>
       </c>
       <c r="I4">
+        <f ca="1"/>
         <v>254.55423897162714</v>
       </c>
     </row>
@@ -681,12 +763,15 @@
         <v>1185.31</v>
       </c>
       <c r="G5" t="str">
+        <f ca="1"/>
         <v>min</v>
       </c>
       <c r="H5">
+        <f ca="1"/>
         <v>1001</v>
       </c>
       <c r="I5">
+        <f ca="1"/>
         <v>420.48</v>
       </c>
     </row>
@@ -707,12 +792,15 @@
         <v>572.37</v>
       </c>
       <c r="G6" t="str">
+        <f ca="1"/>
         <v>25%</v>
       </c>
       <c r="H6">
+        <f ca="1"/>
         <v>1025.75</v>
       </c>
       <c r="I6">
+        <f ca="1"/>
         <v>816.71250000000009</v>
       </c>
     </row>
@@ -733,12 +821,15 @@
         <v>1029.74</v>
       </c>
       <c r="G7" t="str">
+        <f ca="1"/>
         <v>50%</v>
       </c>
       <c r="H7">
+        <f ca="1"/>
         <v>1050.5</v>
       </c>
       <c r="I7">
+        <f ca="1"/>
         <v>980.64499999999998</v>
       </c>
     </row>
@@ -759,12 +850,15 @@
         <v>1250.1199999999999</v>
       </c>
       <c r="G8" t="str">
+        <f ca="1"/>
         <v>75%</v>
       </c>
       <c r="H8">
+        <f ca="1"/>
         <v>1075.25</v>
       </c>
       <c r="I8">
+        <f ca="1"/>
         <v>1149.5650000000001</v>
       </c>
     </row>
@@ -785,12 +879,15 @@
         <v>1038.1099999999999</v>
       </c>
       <c r="G9" t="str">
+        <f ca="1"/>
         <v>max</v>
       </c>
       <c r="H9">
+        <f ca="1"/>
         <v>1100</v>
       </c>
       <c r="I9">
+        <f ca="1"/>
         <v>1765.27</v>
       </c>
     </row>
@@ -828,10 +925,11 @@
         <v>788.35</v>
       </c>
       <c r="G11" t="str" cm="1">
-        <f t="array" ref="G11:H19">_xlfn._xlws.PY(1,0)</f>
+        <f t="array" aca="1" ref="G11:H19" ca="1">_xlfn._xlws.PY(1,0)</f>
         <v/>
       </c>
       <c r="H11" t="str">
+        <f ca="1"/>
         <v>sales</v>
       </c>
     </row>
@@ -852,9 +950,11 @@
         <v>1204.04</v>
       </c>
       <c r="G12" t="str">
+        <f ca="1"/>
         <v>count</v>
       </c>
       <c r="H12">
+        <f ca="1"/>
         <v>100</v>
       </c>
     </row>
@@ -875,9 +975,11 @@
         <v>1117.93</v>
       </c>
       <c r="G13" t="str">
+        <f ca="1"/>
         <v>mean</v>
       </c>
       <c r="H13">
+        <f ca="1"/>
         <v>983.96439999999984</v>
       </c>
     </row>
@@ -898,9 +1000,11 @@
         <v>928.63</v>
       </c>
       <c r="G14" t="str">
+        <f ca="1"/>
         <v>std</v>
       </c>
       <c r="H14">
+        <f ca="1"/>
         <v>254.55423897162714</v>
       </c>
     </row>
@@ -921,9 +1025,11 @@
         <v>1266.32</v>
       </c>
       <c r="G15" t="str">
+        <f ca="1"/>
         <v>min</v>
       </c>
       <c r="H15">
+        <f ca="1"/>
         <v>420.48</v>
       </c>
     </row>
@@ -944,9 +1050,11 @@
         <v>1213.5</v>
       </c>
       <c r="G16" t="str">
+        <f ca="1"/>
         <v>25%</v>
       </c>
       <c r="H16">
+        <f ca="1"/>
         <v>816.71250000000009</v>
       </c>
     </row>
@@ -967,9 +1075,11 @@
         <v>1447.15</v>
       </c>
       <c r="G17" t="str">
+        <f ca="1"/>
         <v>50%</v>
       </c>
       <c r="H17">
+        <f ca="1"/>
         <v>980.64499999999998</v>
       </c>
     </row>
@@ -990,9 +1100,11 @@
         <v>1141.72</v>
       </c>
       <c r="G18" t="str">
+        <f ca="1"/>
         <v>75%</v>
       </c>
       <c r="H18">
+        <f ca="1"/>
         <v>1149.5650000000001</v>
       </c>
     </row>
@@ -1013,9 +1125,11 @@
         <v>958.87</v>
       </c>
       <c r="G19" t="str">
+        <f ca="1"/>
         <v>max</v>
       </c>
       <c r="H19">
+        <f ca="1"/>
         <v>1765.27</v>
       </c>
     </row>
@@ -1053,13 +1167,15 @@
         <v>516.36</v>
       </c>
       <c r="G21" t="str" cm="1">
-        <f t="array" ref="G21:I25">_xlfn._xlws.PY(2,0)</f>
+        <f t="array" aca="1" ref="G21:I25" ca="1">_xlfn._xlws.PY(2,0)</f>
         <v/>
       </c>
       <c r="H21" t="str">
+        <f ca="1"/>
         <v>category</v>
       </c>
       <c r="I21" t="str">
+        <f ca="1"/>
         <v>region</v>
       </c>
     </row>
@@ -1080,12 +1196,15 @@
         <v>1037.6600000000001</v>
       </c>
       <c r="G22" t="str">
+        <f ca="1"/>
         <v>count</v>
       </c>
       <c r="H22">
+        <f ca="1"/>
         <v>100</v>
       </c>
       <c r="I22">
+        <f ca="1"/>
         <v>100</v>
       </c>
     </row>
@@ -1106,12 +1225,15 @@
         <v>996.07</v>
       </c>
       <c r="G23" t="str">
+        <f ca="1"/>
         <v>unique</v>
       </c>
       <c r="H23">
+        <f ca="1"/>
         <v>5</v>
       </c>
       <c r="I23">
+        <f ca="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1132,12 +1254,15 @@
         <v>667.48</v>
       </c>
       <c r="G24" t="str">
+        <f ca="1"/>
         <v>top</v>
       </c>
       <c r="H24" t="str">
+        <f ca="1"/>
         <v>Electronics</v>
       </c>
       <c r="I24" t="str">
+        <f ca="1"/>
         <v>West</v>
       </c>
     </row>
@@ -1158,12 +1283,15 @@
         <v>993.68</v>
       </c>
       <c r="G25" t="str">
+        <f ca="1"/>
         <v>freq</v>
       </c>
       <c r="H25">
+        <f ca="1"/>
         <v>24</v>
       </c>
       <c r="I25">
+        <f ca="1"/>
         <v>32</v>
       </c>
     </row>
@@ -1201,34 +1329,43 @@
         <v>816.36</v>
       </c>
       <c r="G27" t="str" cm="1">
-        <f t="array" ref="G27:P48">_xlfn._xlws.PY(3,0)</f>
+        <f t="array" aca="1" ref="G27:P48" ca="1">_xlfn._xlws.PY(3,0)</f>
         <v/>
       </c>
       <c r="H27" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="I27" t="str">
+        <f ca="1"/>
         <v>count</v>
       </c>
       <c r="J27" t="str">
+        <f ca="1"/>
         <v>mean</v>
       </c>
       <c r="K27" t="str">
+        <f ca="1"/>
         <v>std</v>
       </c>
       <c r="L27" t="str">
+        <f ca="1"/>
         <v>min</v>
       </c>
       <c r="M27" t="str">
+        <f ca="1"/>
         <v>25%</v>
       </c>
       <c r="N27" t="str">
+        <f ca="1"/>
         <v>50%</v>
       </c>
       <c r="O27" t="str">
+        <f ca="1"/>
         <v>75%</v>
       </c>
       <c r="P27" t="str">
+        <f ca="1"/>
         <v>max</v>
       </c>
     </row>
@@ -1249,33 +1386,43 @@
         <v>760.03</v>
       </c>
       <c r="G28" t="str">
+        <f ca="1"/>
         <v>region</v>
       </c>
       <c r="H28" t="str">
+        <f ca="1"/>
         <v>category</v>
       </c>
       <c r="I28" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="J28" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K28" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="L28" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="M28" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="N28" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="O28" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="P28" t="str">
+        <f ca="1"/>
         <v/>
       </c>
     </row>
@@ -1296,33 +1443,43 @@
         <v>1276.23</v>
       </c>
       <c r="G29" t="str">
+        <f ca="1"/>
         <v>Midwest</v>
       </c>
       <c r="H29" t="str">
+        <f ca="1"/>
         <v>Books</v>
       </c>
       <c r="I29">
+        <f ca="1"/>
         <v>2</v>
       </c>
       <c r="J29">
+        <f ca="1"/>
         <v>765.59</v>
       </c>
       <c r="K29">
+        <f ca="1"/>
         <v>352.46444615024649</v>
       </c>
       <c r="L29">
+        <f ca="1"/>
         <v>516.36</v>
       </c>
       <c r="M29">
+        <f ca="1"/>
         <v>640.97500000000002</v>
       </c>
       <c r="N29">
+        <f ca="1"/>
         <v>765.59</v>
       </c>
       <c r="O29">
+        <f ca="1"/>
         <v>890.20500000000004</v>
       </c>
       <c r="P29">
+        <f ca="1"/>
         <v>1014.82</v>
       </c>
     </row>
@@ -1343,33 +1500,43 @@
         <v>1158.56</v>
       </c>
       <c r="G30" t="str">
+        <f ca="1"/>
         <v>Midwest</v>
       </c>
       <c r="H30" t="str">
+        <f ca="1"/>
         <v>Clothing</v>
       </c>
       <c r="I30">
+        <f ca="1"/>
         <v>7</v>
       </c>
       <c r="J30">
+        <f ca="1"/>
         <v>907.97285714285704</v>
       </c>
       <c r="K30">
+        <f ca="1"/>
         <v>210.25926580567824</v>
       </c>
       <c r="L30">
+        <f ca="1"/>
         <v>673.58</v>
       </c>
       <c r="M30">
+        <f ca="1"/>
         <v>757.36</v>
       </c>
       <c r="N30">
+        <f ca="1"/>
         <v>815.19</v>
       </c>
       <c r="O30">
+        <f ca="1"/>
         <v>1069.4100000000001</v>
       </c>
       <c r="P30">
+        <f ca="1"/>
         <v>1213.5</v>
       </c>
     </row>
@@ -1390,33 +1557,43 @@
         <v>1765.27</v>
       </c>
       <c r="G31" t="str">
+        <f ca="1"/>
         <v>Midwest</v>
       </c>
       <c r="H31" t="str">
+        <f ca="1"/>
         <v>Electronics</v>
       </c>
       <c r="I31">
+        <f ca="1"/>
         <v>5</v>
       </c>
       <c r="J31">
+        <f ca="1"/>
         <v>1014.0260000000001</v>
       </c>
       <c r="K31">
+        <f ca="1"/>
         <v>174.42619937956565</v>
       </c>
       <c r="L31">
+        <f ca="1"/>
         <v>729.95</v>
       </c>
       <c r="M31">
+        <f ca="1"/>
         <v>996.07</v>
       </c>
       <c r="N31">
+        <f ca="1"/>
         <v>1038.1099999999999</v>
       </c>
       <c r="O31">
+        <f ca="1"/>
         <v>1125.9000000000001</v>
       </c>
       <c r="P31">
+        <f ca="1"/>
         <v>1180.0999999999999</v>
       </c>
     </row>
@@ -1437,33 +1614,43 @@
         <v>670.36</v>
       </c>
       <c r="G32" t="str">
+        <f ca="1"/>
         <v>Midwest</v>
       </c>
       <c r="H32" t="str">
+        <f ca="1"/>
         <v>Furniture</v>
       </c>
       <c r="I32">
+        <f ca="1"/>
         <v>2</v>
       </c>
       <c r="J32">
+        <f ca="1"/>
         <v>663.6</v>
       </c>
       <c r="K32">
+        <f ca="1"/>
         <v>343.82360128414689</v>
       </c>
       <c r="L32">
+        <f ca="1"/>
         <v>420.48</v>
       </c>
       <c r="M32">
+        <f ca="1"/>
         <v>542.04</v>
       </c>
       <c r="N32">
+        <f ca="1"/>
         <v>663.6</v>
       </c>
       <c r="O32">
+        <f ca="1"/>
         <v>785.16000000000008</v>
       </c>
       <c r="P32">
+        <f ca="1"/>
         <v>906.72</v>
       </c>
     </row>
@@ -1484,33 +1671,43 @@
         <v>1180.0999999999999</v>
       </c>
       <c r="G33" t="str">
+        <f ca="1"/>
         <v>Midwest</v>
       </c>
       <c r="H33" t="str">
+        <f ca="1"/>
         <v>Office Supplies</v>
       </c>
       <c r="I33">
+        <f ca="1"/>
         <v>4</v>
       </c>
       <c r="J33">
+        <f ca="1"/>
         <v>905.47500000000002</v>
       </c>
       <c r="K33">
+        <f ca="1"/>
         <v>288.68978939339024</v>
       </c>
       <c r="L33">
+        <f ca="1"/>
         <v>641.02</v>
       </c>
       <c r="M33">
+        <f ca="1"/>
         <v>663.02499999999998</v>
       </c>
       <c r="N33">
+        <f ca="1"/>
         <v>911.05</v>
       </c>
       <c r="O33">
+        <f ca="1"/>
         <v>1153.5</v>
       </c>
       <c r="P33">
+        <f ca="1"/>
         <v>1158.78</v>
       </c>
     </row>
@@ -1531,33 +1728,43 @@
         <v>1078.97</v>
       </c>
       <c r="G34" t="str">
+        <f ca="1"/>
         <v>Northeast</v>
       </c>
       <c r="H34" t="str">
+        <f ca="1"/>
         <v>Books</v>
       </c>
       <c r="I34">
+        <f ca="1"/>
         <v>4</v>
       </c>
       <c r="J34">
+        <f ca="1"/>
         <v>1125.6500000000001</v>
       </c>
       <c r="K34">
+        <f ca="1"/>
         <v>401.59957993005924</v>
       </c>
       <c r="L34">
+        <f ca="1"/>
         <v>833.26</v>
       </c>
       <c r="M34">
+        <f ca="1"/>
         <v>849.88749999999993</v>
       </c>
       <c r="N34">
+        <f ca="1"/>
         <v>986.68000000000006</v>
       </c>
       <c r="O34">
+        <f ca="1"/>
         <v>1262.4425000000001</v>
       </c>
       <c r="P34">
+        <f ca="1"/>
         <v>1695.98</v>
       </c>
     </row>
@@ -1578,33 +1785,43 @@
         <v>1014.82</v>
       </c>
       <c r="G35" t="str">
+        <f ca="1"/>
         <v>Northeast</v>
       </c>
       <c r="H35" t="str">
+        <f ca="1"/>
         <v>Clothing</v>
       </c>
       <c r="I35">
+        <f ca="1"/>
         <v>5</v>
       </c>
       <c r="J35">
+        <f ca="1"/>
         <v>1089.9000000000001</v>
       </c>
       <c r="K35">
+        <f ca="1"/>
         <v>286.60374064202307</v>
       </c>
       <c r="L35">
+        <f ca="1"/>
         <v>788.16</v>
       </c>
       <c r="M35">
+        <f ca="1"/>
         <v>816.36</v>
       </c>
       <c r="N35">
+        <f ca="1"/>
         <v>1123.75</v>
       </c>
       <c r="O35">
+        <f ca="1"/>
         <v>1274.08</v>
       </c>
       <c r="P35">
+        <f ca="1"/>
         <v>1447.15</v>
       </c>
     </row>
@@ -1625,33 +1842,43 @@
         <v>1227.6300000000001</v>
       </c>
       <c r="G36" t="str">
+        <f ca="1"/>
         <v>Northeast</v>
       </c>
       <c r="H36" t="str">
+        <f ca="1"/>
         <v>Electronics</v>
       </c>
       <c r="I36">
+        <f ca="1"/>
         <v>8</v>
       </c>
       <c r="J36">
+        <f ca="1"/>
         <v>1093.7425000000001</v>
       </c>
       <c r="K36">
+        <f ca="1"/>
         <v>205.30736503037161</v>
       </c>
       <c r="L36">
+        <f ca="1"/>
         <v>816.83</v>
       </c>
       <c r="M36">
+        <f ca="1"/>
         <v>960.68000000000006</v>
       </c>
       <c r="N36">
+        <f ca="1"/>
         <v>1061.675</v>
       </c>
       <c r="O36">
+        <f ca="1"/>
         <v>1283.6875</v>
       </c>
       <c r="P36">
+        <f ca="1"/>
         <v>1341.11</v>
       </c>
     </row>
@@ -1672,33 +1899,43 @@
         <v>992.57</v>
       </c>
       <c r="G37" t="str">
+        <f ca="1"/>
         <v>Northeast</v>
       </c>
       <c r="H37" t="str">
+        <f ca="1"/>
         <v>Furniture</v>
       </c>
       <c r="I37">
+        <f ca="1"/>
         <v>2</v>
       </c>
       <c r="J37">
+        <f ca="1"/>
         <v>1021.99</v>
       </c>
       <c r="K37">
+        <f ca="1"/>
         <v>41.606163005016477</v>
       </c>
       <c r="L37">
+        <f ca="1"/>
         <v>992.57</v>
       </c>
       <c r="M37">
+        <f ca="1"/>
         <v>1007.2800000000001</v>
       </c>
       <c r="N37">
+        <f ca="1"/>
         <v>1021.99</v>
       </c>
       <c r="O37">
+        <f ca="1"/>
         <v>1036.7</v>
       </c>
       <c r="P37">
+        <f ca="1"/>
         <v>1051.4100000000001</v>
       </c>
     </row>
@@ -1719,33 +1956,43 @@
         <v>515.91</v>
       </c>
       <c r="G38" t="str">
+        <f ca="1"/>
         <v>Northeast</v>
       </c>
       <c r="H38" t="str">
+        <f ca="1"/>
         <v>Office Supplies</v>
       </c>
       <c r="I38">
+        <f ca="1"/>
         <v>4</v>
       </c>
       <c r="J38">
+        <f ca="1"/>
         <v>1333.4724999999999</v>
       </c>
       <c r="K38">
+        <f ca="1"/>
         <v>382.15084337427106</v>
       </c>
       <c r="L38">
+        <f ca="1"/>
         <v>847.66</v>
       </c>
       <c r="M38">
+        <f ca="1"/>
         <v>1169.0875000000001</v>
       </c>
       <c r="N38">
+        <f ca="1"/>
         <v>1360.48</v>
       </c>
       <c r="O38">
+        <f ca="1"/>
         <v>1524.865</v>
       </c>
       <c r="P38">
+        <f ca="1"/>
         <v>1765.27</v>
       </c>
     </row>
@@ -1766,33 +2013,43 @@
         <v>788.16</v>
       </c>
       <c r="G39" t="str">
+        <f ca="1"/>
         <v>South</v>
       </c>
       <c r="H39" t="str">
+        <f ca="1"/>
         <v>Books</v>
       </c>
       <c r="I39">
+        <f ca="1"/>
         <v>3</v>
       </c>
       <c r="J39">
+        <f ca="1"/>
         <v>1004.7233333333334</v>
       </c>
       <c r="K39">
+        <f ca="1"/>
         <v>178.24214157525529</v>
       </c>
       <c r="L39">
+        <f ca="1"/>
         <v>812.31</v>
       </c>
       <c r="M39">
+        <f ca="1"/>
         <v>924.98500000000001</v>
       </c>
       <c r="N39">
+        <f ca="1"/>
         <v>1037.6600000000001</v>
       </c>
       <c r="O39">
+        <f ca="1"/>
         <v>1100.93</v>
       </c>
       <c r="P39">
+        <f ca="1"/>
         <v>1164.2</v>
       </c>
     </row>
@@ -1813,33 +2070,43 @@
         <v>1341.11</v>
       </c>
       <c r="G40" t="str">
+        <f ca="1"/>
         <v>South</v>
       </c>
       <c r="H40" t="str">
+        <f ca="1"/>
         <v>Clothing</v>
       </c>
       <c r="I40">
+        <f ca="1"/>
         <v>9</v>
       </c>
       <c r="J40">
+        <f ca="1"/>
         <v>993.798888888889</v>
       </c>
       <c r="K40">
+        <f ca="1"/>
         <v>195.99047862360842</v>
       </c>
       <c r="L40">
+        <f ca="1"/>
         <v>743.63</v>
       </c>
       <c r="M40">
+        <f ca="1"/>
         <v>864.68</v>
       </c>
       <c r="N40">
+        <f ca="1"/>
         <v>896.81</v>
       </c>
       <c r="O40">
+        <f ca="1"/>
         <v>1148.9100000000001</v>
       </c>
       <c r="P40">
+        <f ca="1"/>
         <v>1293.01</v>
       </c>
     </row>
@@ -1860,33 +2127,43 @@
         <v>1293.01</v>
       </c>
       <c r="G41" t="str">
+        <f ca="1"/>
         <v>South</v>
       </c>
       <c r="H41" t="str">
+        <f ca="1"/>
         <v>Electronics</v>
       </c>
       <c r="I41">
+        <f ca="1"/>
         <v>6</v>
       </c>
       <c r="J41">
+        <f ca="1"/>
         <v>991.48500000000001</v>
       </c>
       <c r="K41">
+        <f ca="1"/>
         <v>268.43289617705204</v>
       </c>
       <c r="L41">
+        <f ca="1"/>
         <v>667.48</v>
       </c>
       <c r="M41">
+        <f ca="1"/>
         <v>821.87750000000005</v>
       </c>
       <c r="N41">
+        <f ca="1"/>
         <v>955.15499999999997</v>
       </c>
       <c r="O41">
+        <f ca="1"/>
         <v>1122.085</v>
       </c>
       <c r="P41">
+        <f ca="1"/>
         <v>1415.94</v>
       </c>
     </row>
@@ -1907,33 +2184,43 @@
         <v>906.72</v>
       </c>
       <c r="G42" t="str">
+        <f ca="1"/>
         <v>South</v>
       </c>
       <c r="H42" t="str">
+        <f ca="1"/>
         <v>Furniture</v>
       </c>
       <c r="I42">
+        <f ca="1"/>
         <v>4</v>
       </c>
       <c r="J42">
+        <f ca="1"/>
         <v>926.65500000000009</v>
       </c>
       <c r="K42">
+        <f ca="1"/>
         <v>242.45178400388536</v>
       </c>
       <c r="L42">
+        <f ca="1"/>
         <v>639.13</v>
       </c>
       <c r="M42">
+        <f ca="1"/>
         <v>820.67500000000007</v>
       </c>
       <c r="N42">
+        <f ca="1"/>
         <v>919.93000000000006</v>
       </c>
       <c r="O42">
+        <f ca="1"/>
         <v>1025.9100000000001</v>
       </c>
       <c r="P42">
+        <f ca="1"/>
         <v>1227.6300000000001</v>
       </c>
     </row>
@@ -1954,33 +2241,43 @@
         <v>1125.9000000000001</v>
       </c>
       <c r="G43" t="str">
+        <f ca="1"/>
         <v>South</v>
       </c>
       <c r="H43" t="str">
+        <f ca="1"/>
         <v>Office Supplies</v>
       </c>
       <c r="I43">
+        <f ca="1"/>
         <v>3</v>
       </c>
       <c r="J43">
+        <f ca="1"/>
         <v>1211.2933333333333</v>
       </c>
       <c r="K43">
+        <f ca="1"/>
         <v>165.38227726492747</v>
       </c>
       <c r="L43">
+        <f ca="1"/>
         <v>1084.0999999999999</v>
       </c>
       <c r="M43">
+        <f ca="1"/>
         <v>1117.8150000000001</v>
       </c>
       <c r="N43">
+        <f ca="1"/>
         <v>1151.53</v>
       </c>
       <c r="O43">
+        <f ca="1"/>
         <v>1274.8899999999999</v>
       </c>
       <c r="P43">
+        <f ca="1"/>
         <v>1398.25</v>
       </c>
     </row>
@@ -2001,33 +2298,43 @@
         <v>1695.98</v>
       </c>
       <c r="G44" t="str">
+        <f ca="1"/>
         <v>West</v>
       </c>
       <c r="H44" t="str">
+        <f ca="1"/>
         <v>Books</v>
       </c>
       <c r="I44">
+        <f ca="1"/>
         <v>11</v>
       </c>
       <c r="J44">
+        <f ca="1"/>
         <v>931.99636363636375</v>
       </c>
       <c r="K44">
+        <f ca="1"/>
         <v>242.64018398743136</v>
       </c>
       <c r="L44">
+        <f ca="1"/>
         <v>513.94000000000005</v>
       </c>
       <c r="M44">
+        <f ca="1"/>
         <v>819</v>
       </c>
       <c r="N44">
+        <f ca="1"/>
         <v>945.64</v>
       </c>
       <c r="O44">
+        <f ca="1"/>
         <v>995.14499999999998</v>
       </c>
       <c r="P44">
+        <f ca="1"/>
         <v>1472.39</v>
       </c>
     </row>
@@ -2048,33 +2355,43 @@
         <v>992.2</v>
       </c>
       <c r="G45" t="str">
+        <f ca="1"/>
         <v>West</v>
       </c>
       <c r="H45" t="str">
+        <f ca="1"/>
         <v>Clothing</v>
       </c>
       <c r="I45">
+        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="J45">
+        <f ca="1"/>
         <v>577.04999999999995</v>
       </c>
       <c r="K45" t="e">
+        <f ca="1"/>
         <v>#NUM!</v>
       </c>
       <c r="L45">
+        <f ca="1"/>
         <v>577.04999999999995</v>
       </c>
       <c r="M45">
+        <f ca="1"/>
         <v>577.04999999999995</v>
       </c>
       <c r="N45">
+        <f ca="1"/>
         <v>577.04999999999995</v>
       </c>
       <c r="O45">
+        <f ca="1"/>
         <v>577.04999999999995</v>
       </c>
       <c r="P45">
+        <f ca="1"/>
         <v>577.04999999999995</v>
       </c>
     </row>
@@ -2095,33 +2412,43 @@
         <v>997.1</v>
       </c>
       <c r="G46" t="str">
+        <f ca="1"/>
         <v>West</v>
       </c>
       <c r="H46" t="str">
+        <f ca="1"/>
         <v>Electronics</v>
       </c>
       <c r="I46">
+        <f ca="1"/>
         <v>5</v>
       </c>
       <c r="J46">
+        <f ca="1"/>
         <v>897.85799999999995</v>
       </c>
       <c r="K46">
+        <f ca="1"/>
         <v>244.10933476620679</v>
       </c>
       <c r="L46">
+        <f ca="1"/>
         <v>515.91</v>
       </c>
       <c r="M46">
+        <f ca="1"/>
         <v>902.15</v>
       </c>
       <c r="N46">
+        <f ca="1"/>
         <v>912.77</v>
       </c>
       <c r="O46">
+        <f ca="1"/>
         <v>964.25</v>
       </c>
       <c r="P46">
+        <f ca="1"/>
         <v>1194.21</v>
       </c>
     </row>
@@ -2142,33 +2469,43 @@
         <v>1047.6500000000001</v>
       </c>
       <c r="G47" t="str">
+        <f ca="1"/>
         <v>West</v>
       </c>
       <c r="H47" t="str">
+        <f ca="1"/>
         <v>Furniture</v>
       </c>
       <c r="I47">
+        <f ca="1"/>
         <v>7</v>
       </c>
       <c r="J47">
+        <f ca="1"/>
         <v>965.43857142857155</v>
       </c>
       <c r="K47">
+        <f ca="1"/>
         <v>223.94826384893537</v>
       </c>
       <c r="L47">
+        <f ca="1"/>
         <v>572.37</v>
       </c>
       <c r="M47">
+        <f ca="1"/>
         <v>878.42000000000007</v>
       </c>
       <c r="N47">
+        <f ca="1"/>
         <v>933</v>
       </c>
       <c r="O47">
+        <f ca="1"/>
         <v>1145.9099999999999</v>
       </c>
       <c r="P47">
+        <f ca="1"/>
         <v>1204.04</v>
       </c>
     </row>
@@ -2189,33 +2526,43 @@
         <v>1151.74</v>
       </c>
       <c r="G48" t="str">
+        <f ca="1"/>
         <v>West</v>
       </c>
       <c r="H48" t="str">
+        <f ca="1"/>
         <v>Office Supplies</v>
       </c>
       <c r="I48">
+        <f ca="1"/>
         <v>8</v>
       </c>
       <c r="J48">
+        <f ca="1"/>
         <v>885.77125000000001</v>
       </c>
       <c r="K48">
+        <f ca="1"/>
         <v>214.11747532854821</v>
       </c>
       <c r="L48">
+        <f ca="1"/>
         <v>502.12</v>
       </c>
       <c r="M48">
+        <f ca="1"/>
         <v>746.0675</v>
       </c>
       <c r="N48">
+        <f ca="1"/>
         <v>941.85500000000002</v>
       </c>
       <c r="O48">
+        <f ca="1"/>
         <v>1055.48</v>
       </c>
       <c r="P48">
+        <f ca="1"/>
         <v>1109.51</v>
       </c>
     </row>
@@ -2270,10 +2617,11 @@
         <v>513.94000000000005</v>
       </c>
       <c r="G51" t="str" cm="1">
-        <f t="array" ref="G51:H56">_xlfn._xlws.PY(4,0)</f>
+        <f t="array" aca="1" ref="G51:H56" ca="1">_xlfn._xlws.PY(4,0)</f>
         <v/>
       </c>
       <c r="H51" t="str">
+        <f ca="1"/>
         <v>sales</v>
       </c>
     </row>
@@ -2294,9 +2642,11 @@
         <v>1084.0999999999999</v>
       </c>
       <c r="G52">
+        <f ca="1"/>
         <v>0.1</v>
       </c>
       <c r="H52">
+        <f ca="1"/>
         <v>670.072</v>
       </c>
     </row>
@@ -2317,9 +2667,11 @@
         <v>1012.66</v>
       </c>
       <c r="G53">
+        <f ca="1"/>
         <v>0.25</v>
       </c>
       <c r="H53">
+        <f ca="1"/>
         <v>816.71250000000009</v>
       </c>
     </row>
@@ -2340,9 +2692,11 @@
         <v>945.64</v>
       </c>
       <c r="G54">
+        <f ca="1"/>
         <v>0.5</v>
       </c>
       <c r="H54">
+        <f ca="1"/>
         <v>980.64499999999998</v>
       </c>
     </row>
@@ -2363,9 +2717,11 @@
         <v>881.19</v>
       </c>
       <c r="G55">
+        <f ca="1"/>
         <v>0.75</v>
       </c>
       <c r="H55">
+        <f ca="1"/>
         <v>1149.5650000000001</v>
       </c>
     </row>
@@ -2386,9 +2742,11 @@
         <v>847.66</v>
       </c>
       <c r="G56">
+        <f ca="1"/>
         <v>0.9</v>
       </c>
       <c r="H56">
+        <f ca="1"/>
         <v>1277.9080000000001</v>
       </c>
     </row>
@@ -2426,10 +2784,11 @@
         <v>420.48</v>
       </c>
       <c r="G58" t="str" cm="1">
-        <f t="array" ref="G58:H62">_xlfn._xlws.PY(5,0)</f>
+        <f t="array" aca="1" ref="G58:H62" ca="1">_xlfn._xlws.PY(5,0)</f>
         <v>category</v>
       </c>
       <c r="H58" t="str">
+        <f ca="1"/>
         <v>sales</v>
       </c>
     </row>
@@ -2450,9 +2809,11 @@
         <v>933</v>
       </c>
       <c r="G59" t="str">
+        <f ca="1"/>
         <v>Office Supplies</v>
       </c>
       <c r="H59">
+        <f ca="1"/>
         <v>1035.5705263157895</v>
       </c>
     </row>
@@ -2473,9 +2834,11 @@
         <v>1274.08</v>
       </c>
       <c r="G60" t="str">
+        <f ca="1"/>
         <v>Electronics</v>
       </c>
       <c r="H60">
+        <f ca="1"/>
         <v>1010.76125</v>
       </c>
     </row>
@@ -2496,9 +2859,11 @@
         <v>916.15</v>
       </c>
       <c r="G61" t="str">
+        <f ca="1"/>
         <v>Clothing</v>
       </c>
       <c r="H61">
+        <f ca="1"/>
         <v>969.38863636363635</v>
       </c>
     </row>
@@ -2519,9 +2884,11 @@
         <v>1158.78</v>
       </c>
       <c r="G62" t="str">
+        <f ca="1"/>
         <v>Books</v>
       </c>
       <c r="H62">
+        <f ca="1"/>
         <v>964.99549999999999</v>
       </c>
     </row>
